--- a/results/02-2024/contributions-comparison-02-2024.xlsx
+++ b/results/02-2024/contributions-comparison-02-2024.xlsx
@@ -1031,7 +1031,7 @@
         <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2691</v>
+        <v>0.2804</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -1065,31 +1065,31 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.1405</v>
+        <v>0.1638</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1545</v>
+        <v>-0.1183</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2881</v>
+        <v>-0.2381</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2601</v>
+        <v>-0.2242</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.307</v>
+        <v>-0.2846</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2298</v>
+        <v>-0.2202</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1687</v>
+        <v>-0.1713</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0218</v>
+        <v>-0.0359</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.7173</v>
+        <v>-0.7425</v>
       </c>
     </row>
     <row r="12">
@@ -2051,7 +2051,7 @@
         <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1756</v>
+        <v>0.1869</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -2085,31 +2085,31 @@
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>-0.5553</v>
+        <v>-0.4043</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.8884</v>
+        <v>-0.7993</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.6894</v>
+        <v>-0.6397</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.4098</v>
+        <v>-0.3742</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.8421</v>
+        <v>-0.82</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8456</v>
+        <v>-0.8363</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5293</v>
+        <v>-0.5322</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.354</v>
+        <v>-0.3685</v>
       </c>
       <c r="W31" t="n">
-        <v>-50.4098</v>
+        <v>-50.6121</v>
       </c>
     </row>
     <row r="32">
@@ -2697,31 +2697,31 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>-0.0815</v>
+        <v>0.0461</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3086</v>
+        <v>0.3614</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0647</v>
+        <v>-0.065</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.094</v>
+        <v>-0.0943</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2329</v>
+        <v>0.2326</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1213</v>
+        <v>0.121</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0292</v>
+        <v>-0.0294</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0162</v>
+        <v>0.0159</v>
       </c>
       <c r="W43" t="n">
-        <v>-41.357</v>
+        <v>-41.5341</v>
       </c>
     </row>
     <row r="44">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.0164</v>
+        <v>-0.0051</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -3921,31 +3921,31 @@
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>-0.0277</v>
+        <v>-0.0044</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0471</v>
+        <v>-0.0108</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0654</v>
+        <v>-0.0154</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0544</v>
+        <v>-0.0186</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.0442</v>
+        <v>-0.0218</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.0342</v>
+        <v>-0.0246</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.0248</v>
+        <v>-0.0274</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.0159</v>
+        <v>-0.0301</v>
       </c>
       <c r="W67" t="n">
-        <v>-0.0076</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="68">
@@ -4907,7 +4907,7 @@
         <v>-0.1105</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0081</v>
+        <v>0.0194</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -4941,31 +4941,31 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>-0.4478</v>
+        <v>-0.2968</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.2617</v>
+        <v>-0.1727</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0411</v>
+        <v>0.0908</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0244</v>
+        <v>0.06</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.1441</v>
+        <v>-0.122</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.2412</v>
+        <v>-0.2318</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.2881</v>
+        <v>-0.2909</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.3094</v>
+        <v>-0.3238</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.2603</v>
+        <v>-0.4626</v>
       </c>
     </row>
     <row r="88">
@@ -5553,31 +5553,31 @@
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>-0.1962</v>
+        <v>-0.0686</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0032</v>
+        <v>0.056</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0149</v>
+        <v>0.0146</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0251</v>
+        <v>0.0248</v>
       </c>
       <c r="T99" t="n">
-        <v>0.0331</v>
+        <v>0.0328</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0491</v>
+        <v>0.0488</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0375</v>
+        <v>0.0372</v>
       </c>
       <c r="W99" t="n">
-        <v>0.1209</v>
+        <v>-0.0563</v>
       </c>
     </row>
     <row r="100">
